--- a/data_processed/20250710/BTCUSDVOLSURFACE_REGULARIZED_20250710.xlsx
+++ b/data_processed/20250710/BTCUSDVOLSURFACE_REGULARIZED_20250710.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -11943,7 +11943,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12196,7 +12196,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12830,7 +12830,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18481,7 +18481,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18510,7 +18510,7 @@
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18626,7 @@
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18655,7 +18655,7 @@
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18684,7 +18684,7 @@
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18933,7 +18933,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -25023,7 +25023,7 @@
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -30381,7 +30381,7 @@
       </c>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1653" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -42936,7 +42936,7 @@
       </c>
       <c r="G1655" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -43481,7 +43481,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43539,7 +43539,7 @@
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43568,7 +43568,7 @@
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -43597,7 +43597,7 @@
       </c>
       <c r="G1680" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43742,7 +43742,7 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43771,7 +43771,7 @@
       </c>
       <c r="G1686" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43879,7 +43879,7 @@
       </c>
       <c r="G1690" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="G1691" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -44561,7 +44561,7 @@
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44619,7 +44619,7 @@
       </c>
       <c r="G1718" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44677,7 +44677,7 @@
       </c>
       <c r="G1720" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44789,7 +44789,7 @@
       </c>
       <c r="G1724" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44818,7 +44818,7 @@
       </c>
       <c r="G1725" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -45799,7 +45799,7 @@
       </c>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -45828,7 +45828,7 @@
       </c>
       <c r="G1763" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46743,7 +46743,7 @@
       </c>
       <c r="G1798" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46772,7 +46772,7 @@
       </c>
       <c r="G1799" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -46905,7 +46905,7 @@
       </c>
       <c r="G1804" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46934,7 +46934,7 @@
       </c>
       <c r="G1805" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46963,7 +46963,7 @@
       </c>
       <c r="G1806" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46992,7 +46992,7 @@
       </c>
       <c r="G1807" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47021,7 +47021,7 @@
       </c>
       <c r="G1808" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47282,7 +47282,7 @@
       </c>
       <c r="G1817" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47311,7 +47311,7 @@
       </c>
       <c r="G1818" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47340,7 +47340,7 @@
       </c>
       <c r="G1819" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47369,7 +47369,7 @@
       </c>
       <c r="G1820" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47398,7 +47398,7 @@
       </c>
       <c r="G1821" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47427,7 +47427,7 @@
       </c>
       <c r="G1822" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47456,7 +47456,7 @@
       </c>
       <c r="G1823" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47854,7 +47854,7 @@
       </c>
       <c r="G1837" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47883,7 +47883,7 @@
       </c>
       <c r="G1838" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47912,7 +47912,7 @@
       </c>
       <c r="G1839" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47941,7 +47941,7 @@
       </c>
       <c r="G1840" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -48844,7 +48844,7 @@
       </c>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48873,7 +48873,7 @@
       </c>
       <c r="G1876" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -48902,7 +48902,7 @@
       </c>
       <c r="G1877" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48931,7 +48931,7 @@
       </c>
       <c r="G1878" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -48960,7 +48960,7 @@
       </c>
       <c r="G1879" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -49047,7 +49047,7 @@
       </c>
       <c r="G1882" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -49076,7 +49076,7 @@
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49105,7 +49105,7 @@
       </c>
       <c r="G1884" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -51245,7 +51245,7 @@
       </c>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -51274,7 +51274,7 @@
       </c>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -51303,7 +51303,7 @@
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -51332,7 +51332,7 @@
       </c>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -51361,7 +51361,7 @@
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -51390,7 +51390,7 @@
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -51419,7 +51419,7 @@
       </c>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -51448,7 +51448,7 @@
       </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -51593,7 +51593,7 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51622,7 +51622,7 @@
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -52379,7 +52379,7 @@
       </c>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -53224,7 +53224,7 @@
       </c>
       <c r="G2043" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250710/BTCUSDVOLSURFACE_REGULARIZED_20250710.xlsx
+++ b/data_processed/20250710/BTCUSDVOLSURFACE_REGULARIZED_20250710.xlsx
@@ -18933,7 +18933,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -45799,7 +45799,7 @@
       </c>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -46772,7 +46772,7 @@
       </c>
       <c r="G1799" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -52379,7 +52379,7 @@
       </c>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
